--- a/微指令.xlsx
+++ b/微指令.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\quartus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9EF8F3-279B-420B-AFCA-A072ED2B28F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC204C-021C-4A97-9ABB-74B3366F7456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{6E632A87-84E1-4260-9987-71E2E932B429}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="19185" windowHeight="11385" xr2:uid="{6E632A87-84E1-4260-9987-71E2E932B429}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -775,7 +776,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/微指令.xlsx
+++ b/微指令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC204C-021C-4A97-9ABB-74B3366F7456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB66A3-1E46-4590-A73D-5D653AF0A6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="2940" windowWidth="19185" windowHeight="11385" xr2:uid="{6E632A87-84E1-4260-9987-71E2E932B429}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/微指令.xlsx
+++ b/微指令.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\asamplecpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB66A3-1E46-4590-A73D-5D653AF0A6C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8493C21E-8D7D-4EA5-A202-608C7B00FED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="19185" windowHeight="11385" xr2:uid="{6E632A87-84E1-4260-9987-71E2E932B429}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{6E632A87-84E1-4260-9987-71E2E932B429}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="93">
   <si>
     <t>高 bit - 低 bit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +396,10 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AF4551-3874-466E-B358-BA7462B64FC6}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1691,22 +1694,60 @@
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" t="s">
+        <v>50</v>
+      </c>
+      <c r="U17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D18" s="2"/>
@@ -1715,292 +1756,256 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="M18" t="str">
+        <f>PHONETIC(M1:M13)</f>
+        <v>110000</v>
+      </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="J20">
+        <v>1479</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20">
+        <v>1419</v>
+      </c>
+      <c r="M20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U20" t="s">
+        <v>62</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K21" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>39</v>
-      </c>
-      <c r="R21" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21" t="s">
-        <v>47</v>
-      </c>
-      <c r="T21" t="s">
-        <v>50</v>
-      </c>
-      <c r="U21" t="s">
-        <v>60</v>
-      </c>
+      <c r="D21">
+        <f>LEN(D19)</f>
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <f>LEN(E19)</f>
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <f>LEN(F19)</f>
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:H21" si="0">LEN(G19)</f>
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I21">
+        <f>LEN(I19)</f>
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <f>LEN(J19)</f>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21">
+        <f>LEN(U19)</f>
+        <v>16</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="M22" t="str">
-        <f t="shared" ref="M22" si="0">PHONETIC(M1:M13)</f>
-        <v>110000</v>
-      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24">
-        <v>1479</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24">
-        <v>1419</v>
-      </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
+      <c r="J24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D25">
-        <f>LEN(D23)</f>
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <f>LEN(E23)</f>
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <f>LEN(F23)</f>
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:H25" si="1">LEN(G23)</f>
-        <v>16</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <f>LEN(I23)</f>
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <f>LEN(J23)</f>
-        <v>16</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25">
-        <f>LEN(U23)</f>
-        <v>16</v>
-      </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -2008,22 +2013,12 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2035,12 +2030,8 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2051,155 +2042,3265 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="I33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>26</v>
+      </c>
+      <c r="P47" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
+      <c r="S47" t="s">
+        <v>47</v>
+      </c>
+      <c r="T47" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="M48" t="str">
+        <f>PHONETIC(M31:M43)</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50">
+        <v>1479</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50">
+        <v>1419</v>
+      </c>
+      <c r="M50" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="D51">
+        <f>LEN(D49)</f>
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <f>LEN(E49)</f>
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <f>LEN(F49)</f>
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ref="G51:H51" si="1">LEN(G49)</f>
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <f>LEN(I49)</f>
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <f>LEN(J49)</f>
+        <v>16</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51">
+        <f>LEN(U49)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>8</v>
+      </c>
+      <c r="J58">
+        <v>9</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>11</v>
+      </c>
+      <c r="M58">
+        <v>12</v>
+      </c>
+      <c r="N58">
+        <v>13</v>
+      </c>
+      <c r="O58">
+        <v>14</v>
+      </c>
+      <c r="P58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>12</v>
+      </c>
+      <c r="K59" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" t="s">
+        <v>86</v>
+      </c>
+      <c r="O59" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60" t="s">
+        <v>90</v>
+      </c>
+      <c r="S60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U61">
+        <f>LEN(S61)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U62">
+        <f>LEN(S62)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T63" s="2"/>
+      <c r="U63">
+        <f>LEN(S63)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T64" s="2"/>
+      <c r="U64">
+        <f>LEN(S64)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T65" s="2"/>
+      <c r="U65">
+        <f>LEN(S65)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T66" s="2"/>
+      <c r="U66">
+        <f>LEN(S66)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>59</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T67">
+        <v>1479</v>
+      </c>
+      <c r="U67">
+        <f>LEN(S67)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A70" s="2">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>24</v>
+      </c>
+      <c r="R70" t="str">
+        <f>PHONETIC(A70:M70)</f>
+        <v>110000</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s">
+        <v>36</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s">
+        <v>39</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s">
+        <v>42</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s">
+        <v>47</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s">
+        <v>50</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>60</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T78" t="s">
+        <v>62</v>
+      </c>
+      <c r="U78">
+        <f>LEN(S78)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <v>7</v>
+      </c>
+      <c r="K81">
+        <v>8</v>
+      </c>
+      <c r="L81">
+        <v>9</v>
+      </c>
+      <c r="M81">
+        <v>10</v>
+      </c>
+      <c r="N81">
+        <v>11</v>
+      </c>
+      <c r="O81">
+        <v>12</v>
+      </c>
+      <c r="P81">
+        <v>13</v>
+      </c>
+      <c r="Q81">
+        <v>14</v>
+      </c>
+      <c r="R81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="C82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="I82" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>8</v>
+      </c>
+      <c r="K82" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>15</v>
+      </c>
+      <c r="N82" t="s">
+        <v>17</v>
+      </c>
+      <c r="O82" t="s">
+        <v>19</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>87</v>
+      </c>
+      <c r="R82" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B83" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V83" s="2"/>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B85" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T85" s="2"/>
+      <c r="V85" s="2"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T86" s="2"/>
+      <c r="V86" s="2"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T87" s="2"/>
+      <c r="V87" s="2"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T88" s="2"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T89">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V90" s="2"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T91">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>1</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="T92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V93" s="2"/>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V94" s="2"/>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B99" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T100" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
